--- a/documents/reports/venta.xlsx
+++ b/documents/reports/venta.xlsx
@@ -164,6 +164,16 @@
         <fgColor rgb="FFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders>
     <border>
@@ -235,23 +245,31 @@
       <alignment wrapText="true" horizontal="center" vertical="center"/>
       <protection hidden="false" locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="12" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="12" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="true" horizontal="left" vertical="center"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="13" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="true" horizontal="left" vertical="center"/>
+      <protection hidden="false" locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="14" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="true"/>
       <protection hidden="false" locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="13" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="15" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="true" horizontal="right" vertical="bottom"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="14" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="16" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="true" horizontal="right" vertical="bottom"/>
       <protection hidden="false" locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="15" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="17" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="true" horizontal="center" vertical="bottom"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="16" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="18" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="true" horizontal="center" vertical="bottom"/>
       <protection hidden="false" locked="false"/>
     </xf>
@@ -284,29 +302,28 @@
     <col min="5" max="5" customWidth="1" width="3.0"/>
     <col min="6" max="6" customWidth="1" width="0.5"/>
     <col min="7" max="7" customWidth="1" width="5.3333335"/>
-    <col min="8" max="8" customWidth="1" width="10.5"/>
-    <col min="9" max="9" customWidth="1" width="4.5"/>
+    <col min="8" max="8" customWidth="1" width="15.0"/>
+    <col min="9" max="9" customWidth="1" width="0.33333334"/>
     <col min="10" max="10" customWidth="1" width="0.33333334"/>
-    <col min="11" max="11" customWidth="1" width="0.33333334"/>
-    <col min="12" max="12" customWidth="1" width="0.16666667"/>
-    <col min="13" max="13" customWidth="1" width="4.0"/>
-    <col min="14" max="14" customWidth="1" width="1.3333334"/>
-    <col min="15" max="15" customWidth="1" width="1.0"/>
-    <col min="16" max="16" customWidth="1" width="22.666666"/>
-    <col min="17" max="17" customWidth="1" width="0.8333333"/>
-    <col min="18" max="18" customWidth="1" width="4.3333335"/>
-    <col min="19" max="19" customWidth="1" width="2.1666667"/>
-    <col min="20" max="20" customWidth="1" width="1.1666666"/>
-    <col min="21" max="21" customWidth="1" width="3.3333333"/>
-    <col min="22" max="22" customWidth="1" width="4.1666665"/>
-    <col min="23" max="23" customWidth="1" width="0.6666667"/>
-    <col min="24" max="24" customWidth="1" width="1.1666666"/>
-    <col min="25" max="25" customWidth="1" width="4.1666665"/>
-    <col min="26" max="26" customWidth="1" width="5.6666665"/>
-    <col min="27" max="27" customWidth="1" width="0.16666667"/>
-    <col min="28" max="28" customWidth="1" width="3.0"/>
-    <col min="29" max="29" customWidth="1" width="5.0"/>
-    <col min="30" max="30" customWidth="1" width="0.8333333"/>
+    <col min="11" max="11" customWidth="1" width="0.16666667"/>
+    <col min="12" max="12" customWidth="1" width="4.0"/>
+    <col min="13" max="13" customWidth="1" width="1.3333334"/>
+    <col min="14" max="14" customWidth="1" width="1.0"/>
+    <col min="15" max="15" customWidth="1" width="22.666666"/>
+    <col min="16" max="16" customWidth="1" width="0.8333333"/>
+    <col min="17" max="17" customWidth="1" width="4.3333335"/>
+    <col min="18" max="18" customWidth="1" width="2.1666667"/>
+    <col min="19" max="19" customWidth="1" width="1.1666666"/>
+    <col min="20" max="20" customWidth="1" width="3.3333333"/>
+    <col min="21" max="21" customWidth="1" width="4.1666665"/>
+    <col min="22" max="22" customWidth="1" width="0.6666667"/>
+    <col min="23" max="23" customWidth="1" width="1.1666666"/>
+    <col min="24" max="24" customWidth="1" width="4.1666665"/>
+    <col min="25" max="25" customWidth="1" width="5.6666665"/>
+    <col min="26" max="26" customWidth="1" width="0.16666667"/>
+    <col min="27" max="27" customWidth="1" width="3.0"/>
+    <col min="28" max="28" customWidth="1" width="5.0"/>
+    <col min="29" max="29" customWidth="1" width="0.8333333"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" ht="77">
@@ -339,7 +356,6 @@
       <c r="AA1" s="1" t="inlineStr"/>
       <c r="AB1" s="1" t="inlineStr"/>
       <c r="AC1" s="1" t="inlineStr"/>
-      <c r="AD1" s="1" t="inlineStr"/>
     </row>
     <row r="2" customHeight="1" ht="1">
       <c r="A2" s="1" t="inlineStr"/>
@@ -363,7 +379,7 @@
       <c r="I2" s="3" t="inlineStr"/>
       <c r="J2" s="3" t="inlineStr"/>
       <c r="K2" s="3" t="inlineStr"/>
-      <c r="L2" s="3" t="inlineStr"/>
+      <c r="L2" s="1" t="inlineStr"/>
       <c r="M2" s="1" t="inlineStr"/>
       <c r="N2" s="1" t="inlineStr"/>
       <c r="O2" s="1" t="inlineStr"/>
@@ -381,7 +397,6 @@
       <c r="AA2" s="1" t="inlineStr"/>
       <c r="AB2" s="1" t="inlineStr"/>
       <c r="AC2" s="1" t="inlineStr"/>
-      <c r="AD2" s="1" t="inlineStr"/>
     </row>
     <row r="3" customHeight="1" ht="12">
       <c r="A3" s="1" t="inlineStr"/>
@@ -395,7 +410,7 @@
       <c r="I3" s="3" t="inlineStr"/>
       <c r="J3" s="3" t="inlineStr"/>
       <c r="K3" s="3" t="inlineStr"/>
-      <c r="L3" s="3" t="inlineStr"/>
+      <c r="L3" s="1" t="inlineStr"/>
       <c r="M3" s="1" t="inlineStr"/>
       <c r="N3" s="1" t="inlineStr"/>
       <c r="O3" s="1" t="inlineStr"/>
@@ -413,7 +428,6 @@
       <c r="AA3" s="1" t="inlineStr"/>
       <c r="AB3" s="1" t="inlineStr"/>
       <c r="AC3" s="1" t="inlineStr"/>
-      <c r="AD3" s="1" t="inlineStr"/>
     </row>
     <row r="4" customHeight="1" ht="1">
       <c r="A4" s="1" t="inlineStr"/>
@@ -445,7 +459,6 @@
       <c r="AA4" s="1" t="inlineStr"/>
       <c r="AB4" s="1" t="inlineStr"/>
       <c r="AC4" s="1" t="inlineStr"/>
-      <c r="AD4" s="1" t="inlineStr"/>
     </row>
     <row r="5" customHeight="1" ht="10">
       <c r="A5" s="1" t="inlineStr"/>
@@ -477,7 +490,6 @@
       <c r="AA5" s="1" t="inlineStr"/>
       <c r="AB5" s="1" t="inlineStr"/>
       <c r="AC5" s="1" t="inlineStr"/>
-      <c r="AD5" s="1" t="inlineStr"/>
     </row>
     <row r="6" customHeight="1" ht="13">
       <c r="A6" s="1" t="inlineStr"/>
@@ -502,7 +514,7 @@
       <c r="J6" s="5" t="inlineStr"/>
       <c r="K6" s="5" t="inlineStr"/>
       <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
+      <c r="M6" s="1" t="inlineStr"/>
       <c r="N6" s="1" t="inlineStr"/>
       <c r="O6" s="1" t="inlineStr"/>
       <c r="P6" s="1" t="inlineStr"/>
@@ -519,7 +531,6 @@
       <c r="AA6" s="1" t="inlineStr"/>
       <c r="AB6" s="1" t="inlineStr"/>
       <c r="AC6" s="1" t="inlineStr"/>
-      <c r="AD6" s="1" t="inlineStr"/>
     </row>
     <row r="7" customHeight="1" ht="9">
       <c r="A7" s="1" t="inlineStr"/>
@@ -551,7 +562,6 @@
       <c r="AA7" s="1" t="inlineStr"/>
       <c r="AB7" s="1" t="inlineStr"/>
       <c r="AC7" s="1" t="inlineStr"/>
-      <c r="AD7" s="1" t="inlineStr"/>
     </row>
     <row r="8" customHeight="1" ht="14">
       <c r="A8" s="1" t="inlineStr"/>
@@ -572,23 +582,22 @@
       <c r="N8" s="3" t="inlineStr"/>
       <c r="O8" s="3" t="inlineStr"/>
       <c r="P8" s="3" t="inlineStr"/>
-      <c r="Q8" s="3" t="inlineStr"/>
-      <c r="R8" s="1" t="inlineStr"/>
-      <c r="S8" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Verdana"/>
-              <sz val="10.0"/>
-            </rPr>
-            <t xml:space="preserve">04</t>
-          </r>
-        </is>
-      </c>
-      <c r="T8" s="3" t="inlineStr"/>
+      <c r="Q8" s="1" t="inlineStr"/>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="Verdana"/>
+              <sz val="10.0"/>
+            </rPr>
+            <t xml:space="preserve">13</t>
+          </r>
+        </is>
+      </c>
+      <c r="S8" s="3" t="inlineStr"/>
+      <c r="T8" s="1" t="inlineStr"/>
       <c r="U8" s="1" t="inlineStr"/>
-      <c r="V8" s="1" t="inlineStr"/>
-      <c r="W8" s="2" t="inlineStr">
+      <c r="V8" s="2" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -599,12 +608,12 @@
           </r>
         </is>
       </c>
+      <c r="W8" s="3" t="inlineStr"/>
       <c r="X8" s="3" t="inlineStr"/>
       <c r="Y8" s="3" t="inlineStr"/>
       <c r="Z8" s="3" t="inlineStr"/>
-      <c r="AA8" s="3" t="inlineStr"/>
-      <c r="AB8" s="1" t="inlineStr"/>
-      <c r="AC8" s="2" t="inlineStr">
+      <c r="AA8" s="1" t="inlineStr"/>
+      <c r="AB8" s="2" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -615,7 +624,7 @@
           </r>
         </is>
       </c>
-      <c r="AD8" s="3" t="inlineStr"/>
+      <c r="AC8" s="3" t="inlineStr"/>
     </row>
     <row r="9" customHeight="1" ht="51">
       <c r="A9" s="1" t="inlineStr"/>
@@ -647,7 +656,6 @@
       <c r="AA9" s="1" t="inlineStr"/>
       <c r="AB9" s="1" t="inlineStr"/>
       <c r="AC9" s="1" t="inlineStr"/>
-      <c r="AD9" s="1" t="inlineStr"/>
     </row>
     <row r="10" customHeight="1" ht="17">
       <c r="A10" s="1" t="inlineStr"/>
@@ -676,7 +684,7 @@
       <c r="M10" s="7" t="inlineStr"/>
       <c r="N10" s="7" t="inlineStr"/>
       <c r="O10" s="7" t="inlineStr"/>
-      <c r="P10" s="7" t="inlineStr"/>
+      <c r="P10" s="1" t="inlineStr"/>
       <c r="Q10" s="1" t="inlineStr"/>
       <c r="R10" s="1" t="inlineStr"/>
       <c r="S10" s="1" t="inlineStr"/>
@@ -690,7 +698,6 @@
       <c r="AA10" s="1" t="inlineStr"/>
       <c r="AB10" s="1" t="inlineStr"/>
       <c r="AC10" s="1" t="inlineStr"/>
-      <c r="AD10" s="1" t="inlineStr"/>
     </row>
     <row r="11" customHeight="1" ht="16">
       <c r="A11" s="8" t="inlineStr">
@@ -734,8 +741,7 @@
           </r>
         </is>
       </c>
-      <c r="I11" s="9" t="inlineStr"/>
-      <c r="J11" s="8" t="inlineStr">
+      <c r="I11" s="8" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -747,11 +753,11 @@
           </r>
         </is>
       </c>
+      <c r="J11" s="9" t="inlineStr"/>
       <c r="K11" s="9" t="inlineStr"/>
       <c r="L11" s="9" t="inlineStr"/>
       <c r="M11" s="9" t="inlineStr"/>
-      <c r="N11" s="9" t="inlineStr"/>
-      <c r="O11" s="8" t="inlineStr">
+      <c r="N11" s="8" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -763,11 +769,11 @@
           </r>
         </is>
       </c>
+      <c r="O11" s="9" t="inlineStr"/>
       <c r="P11" s="9" t="inlineStr"/>
       <c r="Q11" s="9" t="inlineStr"/>
       <c r="R11" s="9" t="inlineStr"/>
-      <c r="S11" s="9" t="inlineStr"/>
-      <c r="T11" s="8" t="inlineStr">
+      <c r="S11" s="8" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -779,10 +785,10 @@
           </r>
         </is>
       </c>
+      <c r="T11" s="9" t="inlineStr"/>
       <c r="U11" s="9" t="inlineStr"/>
       <c r="V11" s="9" t="inlineStr"/>
-      <c r="W11" s="9" t="inlineStr"/>
-      <c r="X11" s="8" t="inlineStr">
+      <c r="W11" s="8" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -794,9 +800,9 @@
           </r>
         </is>
       </c>
+      <c r="X11" s="9" t="inlineStr"/>
       <c r="Y11" s="9" t="inlineStr"/>
-      <c r="Z11" s="9" t="inlineStr"/>
-      <c r="AA11" s="8" t="inlineStr">
+      <c r="Z11" s="8" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -804,13 +810,13 @@
               <sz val="10.0"/>
               <u val="single"/>
             </rPr>
-            <t xml:space="preserve">Precio</t>
-          </r>
-        </is>
-      </c>
+            <t xml:space="preserve">US$</t>
+          </r>
+        </is>
+      </c>
+      <c r="AA11" s="9" t="inlineStr"/>
       <c r="AB11" s="9" t="inlineStr"/>
-      <c r="AC11" s="9" t="inlineStr"/>
-      <c r="AD11" s="1" t="inlineStr"/>
+      <c r="AC11" s="1" t="inlineStr"/>
     </row>
     <row r="12" customHeight="1" ht="13">
       <c r="A12" s="10" t="inlineStr">
@@ -851,8 +857,7 @@
           </r>
         </is>
       </c>
-      <c r="I12" s="11" t="inlineStr"/>
-      <c r="J12" s="10" t="inlineStr">
+      <c r="I12" s="10" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -863,18 +868,18 @@
           </r>
         </is>
       </c>
+      <c r="J12" s="11" t="inlineStr"/>
       <c r="K12" s="11" t="inlineStr"/>
       <c r="L12" s="11" t="inlineStr"/>
       <c r="M12" s="11" t="inlineStr"/>
-      <c r="N12" s="11" t="inlineStr"/>
-      <c r="O12" s="10" t="inlineStr">
+      <c r="N12" s="10" t="inlineStr">
         <is/>
       </c>
+      <c r="O12" s="11" t="inlineStr"/>
       <c r="P12" s="11" t="inlineStr"/>
       <c r="Q12" s="11" t="inlineStr"/>
       <c r="R12" s="11" t="inlineStr"/>
-      <c r="S12" s="11" t="inlineStr"/>
-      <c r="T12" s="10" t="inlineStr">
+      <c r="S12" s="10" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -885,10 +890,10 @@
           </r>
         </is>
       </c>
+      <c r="T12" s="11" t="inlineStr"/>
       <c r="U12" s="11" t="inlineStr"/>
       <c r="V12" s="11" t="inlineStr"/>
-      <c r="W12" s="11" t="inlineStr"/>
-      <c r="X12" s="10" t="inlineStr">
+      <c r="W12" s="10" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -899,9 +904,9 @@
           </r>
         </is>
       </c>
+      <c r="X12" s="11" t="inlineStr"/>
       <c r="Y12" s="11" t="inlineStr"/>
-      <c r="Z12" s="11" t="inlineStr"/>
-      <c r="AA12" s="10" t="inlineStr">
+      <c r="Z12" s="10" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -912,9 +917,9 @@
           </r>
         </is>
       </c>
+      <c r="AA12" s="11" t="inlineStr"/>
       <c r="AB12" s="11" t="inlineStr"/>
-      <c r="AC12" s="11" t="inlineStr"/>
-      <c r="AD12" s="1" t="inlineStr"/>
+      <c r="AC12" s="1" t="inlineStr"/>
     </row>
     <row r="13" customHeight="1" ht="214">
       <c r="A13" s="1" t="inlineStr"/>
@@ -946,7 +951,6 @@
       <c r="AA13" s="1" t="inlineStr"/>
       <c r="AB13" s="1" t="inlineStr"/>
       <c r="AC13" s="1" t="inlineStr"/>
-      <c r="AD13" s="1" t="inlineStr"/>
     </row>
     <row r="14" customHeight="1" ht="14">
       <c r="A14" s="1" t="inlineStr"/>
@@ -958,8 +962,7 @@
       <c r="G14" s="1" t="inlineStr"/>
       <c r="H14" s="1" t="inlineStr"/>
       <c r="I14" s="1" t="inlineStr"/>
-      <c r="J14" s="1" t="inlineStr"/>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -970,22 +973,23 @@
           </r>
         </is>
       </c>
+      <c r="K14" s="3" t="inlineStr"/>
       <c r="L14" s="3" t="inlineStr"/>
       <c r="M14" s="3" t="inlineStr"/>
       <c r="N14" s="3" t="inlineStr"/>
-      <c r="O14" s="3" t="inlineStr"/>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Verdana"/>
-              <sz val="10.0"/>
-            </rPr>
-            <t xml:space="preserve">lima</t>
-          </r>
-        </is>
-      </c>
-      <c r="Q14" s="3" t="inlineStr"/>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="Verdana"/>
+              <sz val="10.0"/>
+            </rPr>
+            <t xml:space="preserve">LIMA</t>
+          </r>
+        </is>
+      </c>
+      <c r="P14" s="3" t="inlineStr"/>
+      <c r="Q14" s="1" t="inlineStr"/>
       <c r="R14" s="1" t="inlineStr"/>
       <c r="S14" s="1" t="inlineStr"/>
       <c r="T14" s="1" t="inlineStr"/>
@@ -998,9 +1002,8 @@
       <c r="AA14" s="1" t="inlineStr"/>
       <c r="AB14" s="1" t="inlineStr"/>
       <c r="AC14" s="1" t="inlineStr"/>
-      <c r="AD14" s="1" t="inlineStr"/>
-    </row>
-    <row r="15" customHeight="1" ht="12">
+    </row>
+    <row r="15" customHeight="1" ht="1">
       <c r="A15" s="1" t="inlineStr"/>
       <c r="B15" s="1" t="inlineStr"/>
       <c r="C15" s="1" t="inlineStr"/>
@@ -1030,52 +1033,50 @@
       <c r="AA15" s="1" t="inlineStr"/>
       <c r="AB15" s="1" t="inlineStr"/>
       <c r="AC15" s="1" t="inlineStr"/>
-      <c r="AD15" s="1" t="inlineStr"/>
     </row>
     <row r="16" customHeight="1" ht="20">
-      <c r="A16" s="1" t="inlineStr"/>
-      <c r="B16" s="1" t="inlineStr"/>
-      <c r="C16" s="1" t="inlineStr"/>
-      <c r="D16" s="1" t="inlineStr"/>
-      <c r="E16" s="1" t="inlineStr"/>
-      <c r="F16" s="1" t="inlineStr"/>
-      <c r="G16" s="1" t="inlineStr"/>
-      <c r="H16" s="1" t="inlineStr"/>
-      <c r="I16" s="12" t="inlineStr"/>
-      <c r="J16" s="12" t="inlineStr"/>
-      <c r="K16" s="12" t="inlineStr"/>
-      <c r="L16" s="12" t="inlineStr"/>
-      <c r="M16" s="12" t="inlineStr"/>
-      <c r="N16" s="12" t="inlineStr"/>
-      <c r="O16" s="12" t="inlineStr"/>
-      <c r="P16" s="12" t="inlineStr"/>
-      <c r="Q16" s="12" t="inlineStr"/>
-      <c r="R16" s="12" t="inlineStr"/>
-      <c r="S16" s="12" t="inlineStr"/>
-      <c r="T16" s="12" t="inlineStr"/>
-      <c r="U16" s="12" t="inlineStr"/>
-      <c r="V16" s="12" t="inlineStr"/>
-      <c r="W16" s="12" t="inlineStr"/>
-      <c r="X16" s="12" t="inlineStr"/>
-      <c r="Y16" s="13" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Verdana"/>
-              <sz val="10.0"/>
-            </rPr>
-            <t xml:space="preserve">154,00</t>
-          </r>
-        </is>
-      </c>
+      <c r="A16" s="12" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="Verdana"/>
+              <sz val="10.0"/>
+            </rPr>
+            <t xml:space="preserve">SON: CIENTO OCHENTA Y UNO CON 72/100 DOLARES AMERICANOS</t>
+          </r>
+        </is>
+      </c>
+      <c r="B16" s="13" t="inlineStr"/>
+      <c r="C16" s="13" t="inlineStr"/>
+      <c r="D16" s="13" t="inlineStr"/>
+      <c r="E16" s="13" t="inlineStr"/>
+      <c r="F16" s="13" t="inlineStr"/>
+      <c r="G16" s="13" t="inlineStr"/>
+      <c r="H16" s="13" t="inlineStr"/>
+      <c r="I16" s="13" t="inlineStr"/>
+      <c r="J16" s="13" t="inlineStr"/>
+      <c r="K16" s="13" t="inlineStr"/>
+      <c r="L16" s="13" t="inlineStr"/>
+      <c r="M16" s="13" t="inlineStr"/>
+      <c r="N16" s="13" t="inlineStr"/>
+      <c r="O16" s="13" t="inlineStr"/>
+      <c r="P16" s="13" t="inlineStr"/>
+      <c r="Q16" s="13" t="inlineStr"/>
+      <c r="R16" s="13" t="inlineStr"/>
+      <c r="S16" s="13" t="inlineStr"/>
+      <c r="T16" s="13" t="inlineStr"/>
+      <c r="U16" s="13" t="inlineStr"/>
+      <c r="V16" s="13" t="inlineStr"/>
+      <c r="W16" s="13" t="inlineStr"/>
+      <c r="X16" s="14" t="inlineStr"/>
+      <c r="Y16" s="14" t="inlineStr"/>
       <c r="Z16" s="14" t="inlineStr"/>
       <c r="AA16" s="14" t="inlineStr"/>
       <c r="AB16" s="14" t="inlineStr"/>
       <c r="AC16" s="14" t="inlineStr"/>
-      <c r="AD16" s="14" t="inlineStr"/>
     </row>
     <row r="17" customHeight="1" ht="20">
-      <c r="A17" s="1" t="inlineStr"/>
+      <c r="A17" s="14" t="inlineStr"/>
       <c r="B17" s="1" t="inlineStr"/>
       <c r="C17" s="1" t="inlineStr"/>
       <c r="D17" s="1" t="inlineStr"/>
@@ -1083,7 +1084,7 @@
       <c r="F17" s="1" t="inlineStr"/>
       <c r="G17" s="1" t="inlineStr"/>
       <c r="H17" s="1" t="inlineStr"/>
-      <c r="I17" s="12" t="inlineStr"/>
+      <c r="I17" s="1" t="inlineStr"/>
       <c r="J17" s="1" t="inlineStr"/>
       <c r="K17" s="1" t="inlineStr"/>
       <c r="L17" s="1" t="inlineStr"/>
@@ -1096,38 +1097,27 @@
       <c r="S17" s="1" t="inlineStr"/>
       <c r="T17" s="1" t="inlineStr"/>
       <c r="U17" s="1" t="inlineStr"/>
-      <c r="V17" s="15" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Verdana"/>
-              <sz val="10.0"/>
-            </rPr>
-            <t xml:space="preserve">IGV 18%</t>
-          </r>
-        </is>
-      </c>
-      <c r="W17" s="16" t="inlineStr"/>
-      <c r="X17" s="16" t="inlineStr"/>
+      <c r="V17" s="1" t="inlineStr"/>
+      <c r="W17" s="1" t="inlineStr"/>
+      <c r="X17" s="15" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="Verdana"/>
+              <sz val="10.0"/>
+            </rPr>
+            <t xml:space="preserve">154,00</t>
+          </r>
+        </is>
+      </c>
       <c r="Y17" s="16" t="inlineStr"/>
-      <c r="Z17" s="13" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Verdana"/>
-              <sz val="10.0"/>
-            </rPr>
-            <t xml:space="preserve">27,72</t>
-          </r>
-        </is>
-      </c>
-      <c r="AA17" s="14" t="inlineStr"/>
-      <c r="AB17" s="14" t="inlineStr"/>
-      <c r="AC17" s="14" t="inlineStr"/>
-      <c r="AD17" s="14" t="inlineStr"/>
+      <c r="Z17" s="16" t="inlineStr"/>
+      <c r="AA17" s="16" t="inlineStr"/>
+      <c r="AB17" s="16" t="inlineStr"/>
+      <c r="AC17" s="16" t="inlineStr"/>
     </row>
     <row r="18" customHeight="1" ht="20">
-      <c r="A18" s="1" t="inlineStr"/>
+      <c r="A18" s="14" t="inlineStr"/>
       <c r="B18" s="1" t="inlineStr"/>
       <c r="C18" s="1" t="inlineStr"/>
       <c r="D18" s="1" t="inlineStr"/>
@@ -1135,7 +1125,7 @@
       <c r="F18" s="1" t="inlineStr"/>
       <c r="G18" s="1" t="inlineStr"/>
       <c r="H18" s="1" t="inlineStr"/>
-      <c r="I18" s="12" t="inlineStr"/>
+      <c r="I18" s="1" t="inlineStr"/>
       <c r="J18" s="1" t="inlineStr"/>
       <c r="K18" s="1" t="inlineStr"/>
       <c r="L18" s="1" t="inlineStr"/>
@@ -1147,29 +1137,38 @@
       <c r="R18" s="1" t="inlineStr"/>
       <c r="S18" s="1" t="inlineStr"/>
       <c r="T18" s="1" t="inlineStr"/>
-      <c r="U18" s="1" t="inlineStr"/>
-      <c r="V18" s="1" t="inlineStr"/>
-      <c r="W18" s="1" t="inlineStr"/>
-      <c r="X18" s="1" t="inlineStr"/>
-      <c r="Y18" s="13" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Verdana"/>
-              <sz val="10.0"/>
-            </rPr>
-            <t xml:space="preserve">181,72</t>
-          </r>
-        </is>
-      </c>
-      <c r="Z18" s="14" t="inlineStr"/>
-      <c r="AA18" s="14" t="inlineStr"/>
-      <c r="AB18" s="14" t="inlineStr"/>
-      <c r="AC18" s="14" t="inlineStr"/>
-      <c r="AD18" s="14" t="inlineStr"/>
-    </row>
-    <row r="19" customHeight="1" ht="25">
-      <c r="A19" s="1" t="inlineStr"/>
+      <c r="U18" s="17" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="Verdana"/>
+              <sz val="10.0"/>
+            </rPr>
+            <t xml:space="preserve">         18%</t>
+          </r>
+        </is>
+      </c>
+      <c r="V18" s="18" t="inlineStr"/>
+      <c r="W18" s="18" t="inlineStr"/>
+      <c r="X18" s="18" t="inlineStr"/>
+      <c r="Y18" s="15" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="Verdana"/>
+              <sz val="10.0"/>
+            </rPr>
+            <t xml:space="preserve">27,72</t>
+          </r>
+        </is>
+      </c>
+      <c r="Z18" s="16" t="inlineStr"/>
+      <c r="AA18" s="16" t="inlineStr"/>
+      <c r="AB18" s="16" t="inlineStr"/>
+      <c r="AC18" s="16" t="inlineStr"/>
+    </row>
+    <row r="19" customHeight="1" ht="20">
+      <c r="A19" s="14" t="inlineStr"/>
       <c r="B19" s="1" t="inlineStr"/>
       <c r="C19" s="1" t="inlineStr"/>
       <c r="D19" s="1" t="inlineStr"/>
@@ -1177,92 +1176,130 @@
       <c r="F19" s="1" t="inlineStr"/>
       <c r="G19" s="1" t="inlineStr"/>
       <c r="H19" s="1" t="inlineStr"/>
-      <c r="I19" s="12" t="inlineStr"/>
-      <c r="J19" s="12" t="inlineStr"/>
-      <c r="K19" s="12" t="inlineStr"/>
-      <c r="L19" s="12" t="inlineStr"/>
-      <c r="M19" s="12" t="inlineStr"/>
-      <c r="N19" s="12" t="inlineStr"/>
-      <c r="O19" s="12" t="inlineStr"/>
-      <c r="P19" s="12" t="inlineStr"/>
-      <c r="Q19" s="12" t="inlineStr"/>
-      <c r="R19" s="12" t="inlineStr"/>
-      <c r="S19" s="12" t="inlineStr"/>
-      <c r="T19" s="12" t="inlineStr"/>
-      <c r="U19" s="12" t="inlineStr"/>
-      <c r="V19" s="12" t="inlineStr"/>
-      <c r="W19" s="12" t="inlineStr"/>
-      <c r="X19" s="12" t="inlineStr"/>
-      <c r="Y19" s="12" t="inlineStr"/>
-      <c r="Z19" s="12" t="inlineStr"/>
-      <c r="AA19" s="12" t="inlineStr"/>
-      <c r="AB19" s="12" t="inlineStr"/>
-      <c r="AC19" s="12" t="inlineStr"/>
-      <c r="AD19" s="12" t="inlineStr"/>
-    </row>
-    <row r="20" customHeight="1" ht="141">
-      <c r="A20" s="1" t="inlineStr"/>
-      <c r="B20" s="1" t="inlineStr"/>
-      <c r="C20" s="1" t="inlineStr"/>
-      <c r="D20" s="1" t="inlineStr"/>
-      <c r="E20" s="1" t="inlineStr"/>
-      <c r="F20" s="1" t="inlineStr"/>
-      <c r="G20" s="1" t="inlineStr"/>
-      <c r="H20" s="1" t="inlineStr"/>
-      <c r="I20" s="1" t="inlineStr"/>
-      <c r="J20" s="1" t="inlineStr"/>
-      <c r="K20" s="1" t="inlineStr"/>
-      <c r="L20" s="1" t="inlineStr"/>
-      <c r="M20" s="1" t="inlineStr"/>
-      <c r="N20" s="1" t="inlineStr"/>
-      <c r="O20" s="1" t="inlineStr"/>
-      <c r="P20" s="1" t="inlineStr"/>
-      <c r="Q20" s="1" t="inlineStr"/>
-      <c r="R20" s="1" t="inlineStr"/>
-      <c r="S20" s="1" t="inlineStr"/>
-      <c r="T20" s="1" t="inlineStr"/>
-      <c r="U20" s="1" t="inlineStr"/>
-      <c r="V20" s="1" t="inlineStr"/>
-      <c r="W20" s="1" t="inlineStr"/>
-      <c r="X20" s="1" t="inlineStr"/>
-      <c r="Y20" s="1" t="inlineStr"/>
-      <c r="Z20" s="1" t="inlineStr"/>
-      <c r="AA20" s="1" t="inlineStr"/>
-      <c r="AB20" s="1" t="inlineStr"/>
-      <c r="AC20" s="1" t="inlineStr"/>
-      <c r="AD20" s="1" t="inlineStr"/>
+      <c r="I19" s="1" t="inlineStr"/>
+      <c r="J19" s="1" t="inlineStr"/>
+      <c r="K19" s="1" t="inlineStr"/>
+      <c r="L19" s="1" t="inlineStr"/>
+      <c r="M19" s="1" t="inlineStr"/>
+      <c r="N19" s="1" t="inlineStr"/>
+      <c r="O19" s="1" t="inlineStr"/>
+      <c r="P19" s="1" t="inlineStr"/>
+      <c r="Q19" s="1" t="inlineStr"/>
+      <c r="R19" s="1" t="inlineStr"/>
+      <c r="S19" s="1" t="inlineStr"/>
+      <c r="T19" s="1" t="inlineStr"/>
+      <c r="U19" s="1" t="inlineStr"/>
+      <c r="V19" s="1" t="inlineStr"/>
+      <c r="W19" s="1" t="inlineStr"/>
+      <c r="X19" s="15" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="Verdana"/>
+              <sz val="10.0"/>
+            </rPr>
+            <t xml:space="preserve">181,72</t>
+          </r>
+        </is>
+      </c>
+      <c r="Y19" s="16" t="inlineStr"/>
+      <c r="Z19" s="16" t="inlineStr"/>
+      <c r="AA19" s="16" t="inlineStr"/>
+      <c r="AB19" s="16" t="inlineStr"/>
+      <c r="AC19" s="16" t="inlineStr"/>
+    </row>
+    <row r="20" customHeight="1" ht="24">
+      <c r="A20" s="14" t="inlineStr"/>
+      <c r="B20" s="14" t="inlineStr"/>
+      <c r="C20" s="14" t="inlineStr"/>
+      <c r="D20" s="14" t="inlineStr"/>
+      <c r="E20" s="14" t="inlineStr"/>
+      <c r="F20" s="14" t="inlineStr"/>
+      <c r="G20" s="14" t="inlineStr"/>
+      <c r="H20" s="14" t="inlineStr"/>
+      <c r="I20" s="14" t="inlineStr"/>
+      <c r="J20" s="14" t="inlineStr"/>
+      <c r="K20" s="14" t="inlineStr"/>
+      <c r="L20" s="14" t="inlineStr"/>
+      <c r="M20" s="14" t="inlineStr"/>
+      <c r="N20" s="14" t="inlineStr"/>
+      <c r="O20" s="14" t="inlineStr"/>
+      <c r="P20" s="14" t="inlineStr"/>
+      <c r="Q20" s="14" t="inlineStr"/>
+      <c r="R20" s="14" t="inlineStr"/>
+      <c r="S20" s="14" t="inlineStr"/>
+      <c r="T20" s="14" t="inlineStr"/>
+      <c r="U20" s="14" t="inlineStr"/>
+      <c r="V20" s="14" t="inlineStr"/>
+      <c r="W20" s="14" t="inlineStr"/>
+      <c r="X20" s="14" t="inlineStr"/>
+      <c r="Y20" s="14" t="inlineStr"/>
+      <c r="Z20" s="14" t="inlineStr"/>
+      <c r="AA20" s="14" t="inlineStr"/>
+      <c r="AB20" s="14" t="inlineStr"/>
+      <c r="AC20" s="14" t="inlineStr"/>
+    </row>
+    <row r="21" customHeight="1" ht="133">
+      <c r="A21" s="1" t="inlineStr"/>
+      <c r="B21" s="1" t="inlineStr"/>
+      <c r="C21" s="1" t="inlineStr"/>
+      <c r="D21" s="1" t="inlineStr"/>
+      <c r="E21" s="1" t="inlineStr"/>
+      <c r="F21" s="1" t="inlineStr"/>
+      <c r="G21" s="1" t="inlineStr"/>
+      <c r="H21" s="1" t="inlineStr"/>
+      <c r="I21" s="1" t="inlineStr"/>
+      <c r="J21" s="1" t="inlineStr"/>
+      <c r="K21" s="1" t="inlineStr"/>
+      <c r="L21" s="1" t="inlineStr"/>
+      <c r="M21" s="1" t="inlineStr"/>
+      <c r="N21" s="1" t="inlineStr"/>
+      <c r="O21" s="1" t="inlineStr"/>
+      <c r="P21" s="1" t="inlineStr"/>
+      <c r="Q21" s="1" t="inlineStr"/>
+      <c r="R21" s="1" t="inlineStr"/>
+      <c r="S21" s="1" t="inlineStr"/>
+      <c r="T21" s="1" t="inlineStr"/>
+      <c r="U21" s="1" t="inlineStr"/>
+      <c r="V21" s="1" t="inlineStr"/>
+      <c r="W21" s="1" t="inlineStr"/>
+      <c r="X21" s="1" t="inlineStr"/>
+      <c r="Y21" s="1" t="inlineStr"/>
+      <c r="Z21" s="1" t="inlineStr"/>
+      <c r="AA21" s="1" t="inlineStr"/>
+      <c r="AB21" s="1" t="inlineStr"/>
+      <c r="AC21" s="1" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="C2:L3"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="D8:Q8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="G10:P10"/>
+    <mergeCell ref="C2:K3"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="D8:P8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="G10:O10"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="O11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="Z11:AB11"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="Y16:AD16"/>
-    <mergeCell ref="V17:Y17"/>
-    <mergeCell ref="Z17:AD17"/>
-    <mergeCell ref="Y18:AD18"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="W12:Y12"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="A16:W16"/>
+    <mergeCell ref="X17:AC17"/>
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="Y18:AC18"/>
+    <mergeCell ref="X19:AC19"/>
   </mergeCells>
   <pageMargins left="0.0" right="0.2777777777777778" top="0.5833333333333334" bottom="0.2777777777777778" header="0.0" footer="0.0"/>
   <pageSetup orientation="portrait"/>
